--- a/Second semester/neural network/HW1/lbl5.xlsx
+++ b/Second semester/neural network/HW1/lbl5.xlsx
@@ -389,7 +389,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -734,7 +734,7 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -1059,7 +1059,7 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:1">
@@ -1149,7 +1149,7 @@
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:1">
@@ -1864,7 +1864,7 @@
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:1">
@@ -1914,7 +1914,7 @@
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:1">
@@ -2209,7 +2209,7 @@
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:1">
@@ -2219,7 +2219,7 @@
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:1">
@@ -3059,7 +3059,7 @@
     </row>
     <row r="538" spans="1:1">
       <c r="A538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:1">
@@ -3094,7 +3094,7 @@
     </row>
     <row r="545" spans="1:1">
       <c r="A545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:1">
@@ -3149,7 +3149,7 @@
     </row>
     <row r="556" spans="1:1">
       <c r="A556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:1">
@@ -3239,17 +3239,17 @@
     </row>
     <row r="574" spans="1:1">
       <c r="A574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:1">
@@ -3274,7 +3274,7 @@
     </row>
     <row r="581" spans="1:1">
       <c r="A581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:1">
@@ -3364,7 +3364,7 @@
     </row>
     <row r="599" spans="1:1">
       <c r="A599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:1">
@@ -3474,7 +3474,7 @@
     </row>
     <row r="621" spans="1:1">
       <c r="A621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:1">
@@ -3699,7 +3699,7 @@
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:1">
@@ -3729,7 +3729,7 @@
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:1">
@@ -3824,7 +3824,7 @@
     </row>
     <row r="691" spans="1:1">
       <c r="A691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:1">
@@ -3859,7 +3859,7 @@
     </row>
     <row r="698" spans="1:1">
       <c r="A698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:1">
@@ -3899,7 +3899,7 @@
     </row>
     <row r="706" spans="1:1">
       <c r="A706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:1">
@@ -3949,7 +3949,7 @@
     </row>
     <row r="716" spans="1:1">
       <c r="A716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:1">
@@ -4134,7 +4134,7 @@
     </row>
     <row r="753" spans="1:1">
       <c r="A753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:1">
@@ -4309,7 +4309,7 @@
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:1">
@@ -4519,7 +4519,7 @@
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:1">
@@ -4604,7 +4604,7 @@
     </row>
     <row r="847" spans="1:1">
       <c r="A847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:1">
@@ -4739,7 +4739,7 @@
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:1">
@@ -4754,7 +4754,7 @@
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:1">
@@ -4939,7 +4939,7 @@
     </row>
     <row r="914" spans="1:1">
       <c r="A914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:1">
@@ -4949,7 +4949,7 @@
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:1">
@@ -4959,7 +4959,7 @@
     </row>
     <row r="918" spans="1:1">
       <c r="A918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:1">
@@ -4969,32 +4969,32 @@
     </row>
     <row r="920" spans="1:1">
       <c r="A920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:1">
@@ -5009,7 +5009,7 @@
     </row>
     <row r="928" spans="1:1">
       <c r="A928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:1">
@@ -5019,7 +5019,7 @@
     </row>
     <row r="930" spans="1:1">
       <c r="A930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:1">
@@ -5129,12 +5129,12 @@
     </row>
     <row r="952" spans="1:1">
       <c r="A952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:1">
@@ -5159,7 +5159,7 @@
     </row>
     <row r="958" spans="1:1">
       <c r="A958">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:1">
@@ -5184,7 +5184,7 @@
     </row>
     <row r="963" spans="1:1">
       <c r="A963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:1">
@@ -5199,7 +5199,7 @@
     </row>
     <row r="966" spans="1:1">
       <c r="A966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:1">
@@ -5219,7 +5219,7 @@
     </row>
     <row r="970" spans="1:1">
       <c r="A970">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:1">
@@ -5229,7 +5229,7 @@
     </row>
     <row r="972" spans="1:1">
       <c r="A972">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:1">
@@ -5249,7 +5249,7 @@
     </row>
     <row r="976" spans="1:1">
       <c r="A976">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:1">
@@ -5274,7 +5274,7 @@
     </row>
     <row r="981" spans="1:1">
       <c r="A981">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:1">
@@ -5289,7 +5289,7 @@
     </row>
     <row r="984" spans="1:1">
       <c r="A984">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:1">
@@ -5309,7 +5309,7 @@
     </row>
     <row r="988" spans="1:1">
       <c r="A988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:1">
@@ -5324,7 +5324,7 @@
     </row>
     <row r="991" spans="1:1">
       <c r="A991">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:1">
@@ -5339,7 +5339,7 @@
     </row>
     <row r="994" spans="1:1">
       <c r="A994">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:1">
@@ -5354,7 +5354,7 @@
     </row>
     <row r="997" spans="1:1">
       <c r="A997">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:1">
@@ -5394,7 +5394,7 @@
     </row>
     <row r="1005" spans="1:1">
       <c r="A1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:1">
@@ -5454,7 +5454,7 @@
     </row>
     <row r="1017" spans="1:1">
       <c r="A1017">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:1">
@@ -5464,7 +5464,7 @@
     </row>
     <row r="1019" spans="1:1">
       <c r="A1019">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:1">
@@ -5479,12 +5479,12 @@
     </row>
     <row r="1022" spans="1:1">
       <c r="A1022">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1023" spans="1:1">
       <c r="A1023">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:1">
@@ -5519,12 +5519,12 @@
     </row>
     <row r="1030" spans="1:1">
       <c r="A1030">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:1">
       <c r="A1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:1">
@@ -5539,12 +5539,12 @@
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
@@ -5584,7 +5584,7 @@
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
@@ -5594,7 +5594,7 @@
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
@@ -5609,7 +5609,7 @@
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
@@ -5619,7 +5619,7 @@
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
@@ -5654,7 +5654,7 @@
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
@@ -5669,7 +5669,7 @@
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
@@ -5694,17 +5694,17 @@
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
@@ -5719,12 +5719,12 @@
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
@@ -5769,57 +5769,57 @@
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
@@ -5829,32 +5829,32 @@
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
@@ -5864,22 +5864,22 @@
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
@@ -6129,7 +6129,7 @@
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
@@ -6799,7 +6799,7 @@
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
@@ -7239,7 +7239,7 @@
     </row>
     <row r="1374" spans="1:1">
       <c r="A1374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375" spans="1:1">
@@ -7569,7 +7569,7 @@
     </row>
     <row r="1440" spans="1:1">
       <c r="A1440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1441" spans="1:1">
@@ -7714,7 +7714,7 @@
     </row>
     <row r="1469" spans="1:1">
       <c r="A1469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1470" spans="1:1">
@@ -7744,7 +7744,7 @@
     </row>
     <row r="1475" spans="1:1">
       <c r="A1475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1476" spans="1:1">
@@ -7794,7 +7794,7 @@
     </row>
     <row r="1485" spans="1:1">
       <c r="A1485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1486" spans="1:1">
@@ -8514,7 +8514,7 @@
     </row>
     <row r="1629" spans="1:1">
       <c r="A1629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1630" spans="1:1">
@@ -9219,7 +9219,7 @@
     </row>
     <row r="1770" spans="1:1">
       <c r="A1770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1771" spans="1:1">
@@ -9249,7 +9249,7 @@
     </row>
     <row r="1776" spans="1:1">
       <c r="A1776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1777" spans="1:1">
@@ -9284,7 +9284,7 @@
     </row>
     <row r="1783" spans="1:1">
       <c r="A1783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1784" spans="1:1">
@@ -9344,7 +9344,7 @@
     </row>
     <row r="1795" spans="1:1">
       <c r="A1795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1796" spans="1:1">
@@ -9369,7 +9369,7 @@
     </row>
     <row r="1800" spans="1:1">
       <c r="A1800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1801" spans="1:1">
